--- a/docs/CareConnect-Procedure-1.xlsx
+++ b/docs/CareConnect-Procedure-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3787" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="498">
   <si>
     <t>Path</t>
   </si>
@@ -334,6 +334,20 @@
 </t>
   </si>
   <si>
+    <t>Details of any adverse reaction to any anaesthetic agents</t>
+  </si>
+  <si>
+    <t>Details of any adverse reaction to any anaesthetic agents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Procedure.modifierExtension</t>
   </si>
   <si>
@@ -486,7 +500,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -813,41 +827,10 @@
 </t>
   </si>
   <si>
-    <t>Procedure.code.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Procedure.code.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Procedure.code.coding.system</t>
@@ -1260,18 +1243,6 @@
     <t>Procedure.bodySite.coding.extension</t>
   </si>
   <si>
-    <t>Procedure.bodySite.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite.coding.extension.value[x]</t>
-  </si>
-  <si>
     <t>Procedure.bodySite.coding.system</t>
   </si>
   <si>
@@ -1367,18 +1338,6 @@
   </si>
   <si>
     <t>Procedure.complication.coding.extension</t>
-  </si>
-  <si>
-    <t>Procedure.complication.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Procedure.complication.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Procedure.complication.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Procedure.complication.coding.extension.value[x]</t>
   </si>
   <si>
     <t>Procedure.complication.coding.system</t>
@@ -1753,7 +1712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL112"/>
+  <dimension ref="A1:AL100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1762,7 +1721,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.44921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.9609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2789,7 +2748,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -2804,10 +2763,10 @@
         <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2867,10 +2826,10 @@
         <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>39</v>
@@ -2884,11 +2843,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2910,13 +2869,13 @@
         <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2966,7 +2925,7 @@
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
@@ -2992,7 +2951,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3015,17 +2974,17 @@
         <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>39</v>
@@ -3074,7 +3033,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -3089,18 +3048,18 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3123,13 +3082,13 @@
         <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3180,7 +3139,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -3195,7 +3154,7 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>39</v>
@@ -3206,11 +3165,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3232,13 +3191,13 @@
         <v>93</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3279,7 +3238,7 @@
         <v>96</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>39</v>
@@ -3288,7 +3247,7 @@
         <v>97</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -3303,7 +3262,7 @@
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -3314,7 +3273,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3340,16 +3299,16 @@
         <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -3374,13 +3333,13 @@
         <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
@@ -3398,7 +3357,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -3413,7 +3372,7 @@
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -3424,7 +3383,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3447,19 +3406,19 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -3487,10 +3446,10 @@
         <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>39</v>
@@ -3508,7 +3467,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -3523,18 +3482,18 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3560,14 +3519,14 @@
         <v>61</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -3580,7 +3539,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>39</v>
@@ -3616,7 +3575,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -3631,18 +3590,18 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3665,16 +3624,16 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3688,7 +3647,7 @@
         <v>39</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>39</v>
@@ -3724,7 +3683,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3739,18 +3698,18 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3773,13 +3732,13 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3830,7 +3789,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3845,18 +3804,18 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3879,16 +3838,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3938,7 +3897,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3953,18 +3912,18 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3987,13 +3946,13 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4044,7 +4003,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -4059,7 +4018,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -4070,11 +4029,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4093,13 +4052,13 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4150,7 +4109,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -4165,7 +4124,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -4176,11 +4135,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4199,16 +4158,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4258,7 +4217,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -4273,7 +4232,7 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -4284,7 +4243,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4310,13 +4269,13 @@
         <v>67</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4342,32 +4301,32 @@
         <v>39</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AF24" t="s" s="2">
         <v>48</v>
       </c>
@@ -4381,10 +4340,10 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>39</v>
@@ -4392,7 +4351,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4415,20 +4374,20 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
@@ -4474,7 +4433,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -4489,7 +4448,7 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -4500,7 +4459,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4523,13 +4482,13 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4556,32 +4515,32 @@
         <v>39</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4589,13 +4548,13 @@
         <v>48</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -4606,7 +4565,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4629,13 +4588,13 @@
         <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4662,32 +4621,32 @@
         <v>39</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4701,10 +4660,10 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>39</v>
@@ -4712,11 +4671,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4735,17 +4694,17 @@
         <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4770,10 +4729,10 @@
         <v>39</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Y28" t="s" s="2">
         <v>39</v>
@@ -4794,7 +4753,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4809,18 +4768,18 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4843,13 +4802,13 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4900,7 +4859,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4915,7 +4874,7 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4926,11 +4885,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4952,13 +4911,13 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4999,7 +4958,7 @@
         <v>96</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>39</v>
@@ -5008,7 +4967,7 @@
         <v>97</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -5023,7 +4982,7 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -5034,7 +4993,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5057,19 +5016,19 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -5106,7 +5065,7 @@
         <v>39</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
@@ -5116,7 +5075,7 @@
         <v>97</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -5131,21 +5090,21 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>39</v>
@@ -5167,19 +5126,19 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
@@ -5207,28 +5166,28 @@
         <v>71</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -5243,18 +5202,18 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5277,13 +5236,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5334,7 +5293,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -5349,7 +5308,7 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>39</v>
@@ -5360,7 +5319,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5431,7 +5390,7 @@
         <v>96</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>39</v>
@@ -5440,7 +5399,7 @@
         <v>97</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5466,10 +5425,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>39</v>
@@ -5491,13 +5450,13 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5548,7 +5507,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5574,7 +5533,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5582,7 +5541,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>48</v>
@@ -5594,25 +5553,29 @@
         <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>39</v>
@@ -5654,7 +5617,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>119</v>
+        <v>266</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5669,29 +5632,29 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>39</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>39</v>
@@ -5700,19 +5663,19 @@
         <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5750,25 +5713,25 @@
         <v>39</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
@@ -5777,18 +5740,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>120</v>
+        <v>274</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>39</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5808,21 +5771,21 @@
         <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5870,10 +5833,10 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>48</v>
@@ -5885,18 +5848,18 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>39</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5904,7 +5867,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>48</v>
@@ -5916,19 +5879,21 @@
         <v>39</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>262</v>
+        <v>120</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
       </c>
@@ -5976,7 +5941,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5991,18 +5956,18 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>39</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6010,7 +5975,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>48</v>
@@ -6025,26 +5990,26 @@
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>39</v>
@@ -6086,7 +6051,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -6101,18 +6066,18 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>274</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6135,18 +6100,20 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
       </c>
@@ -6194,7 +6161,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -6209,22 +6176,22 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>281</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6243,18 +6210,16 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>67</v>
+        <v>308</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>39</v>
       </c>
@@ -6302,10 +6267,10 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>48</v>
@@ -6317,26 +6282,26 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>288</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>48</v>
@@ -6351,18 +6316,16 @@
         <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -6410,7 +6373,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6425,18 +6388,18 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>295</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6459,20 +6422,16 @@
         <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>204</v>
+        <v>323</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>39</v>
       </c>
@@ -6520,7 +6479,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6535,18 +6494,18 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>39</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6557,7 +6516,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>39</v>
@@ -6569,20 +6528,16 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>116</v>
+        <v>330</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>39</v>
       </c>
@@ -6630,41 +6585,41 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>39</v>
+        <v>333</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>311</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>313</v>
+        <v>39</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>48</v>
@@ -6676,16 +6631,16 @@
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>314</v>
+        <v>120</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>315</v>
+        <v>121</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>316</v>
+        <v>122</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6736,10 +6691,10 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>48</v>
@@ -6751,29 +6706,29 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>317</v>
+        <v>124</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>319</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>321</v>
+        <v>106</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -6782,18 +6737,20 @@
         <v>39</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>322</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6842,13 +6799,13 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>320</v>
+        <v>129</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -6857,49 +6814,51 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>325</v>
+        <v>124</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>326</v>
+        <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>327</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>330</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6948,13 +6907,13 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
@@ -6963,18 +6922,18 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>333</v>
+        <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>334</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6985,7 +6944,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
@@ -6997,13 +6956,13 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>336</v>
+        <v>141</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7030,13 +6989,13 @@
         <v>39</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>39</v>
+        <v>344</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>39</v>
+        <v>345</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
@@ -7054,33 +7013,33 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>339</v>
+        <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>39</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7088,7 +7047,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>48</v>
@@ -7100,19 +7059,21 @@
         <v>39</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>116</v>
+        <v>349</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>118</v>
+        <v>351</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
@@ -7160,10 +7121,10 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>119</v>
+        <v>348</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>48</v>
@@ -7175,29 +7136,29 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>120</v>
+        <v>353</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>39</v>
+        <v>354</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>39</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>39</v>
@@ -7209,18 +7170,18 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>122</v>
+        <v>357</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>39</v>
       </c>
@@ -7268,13 +7229,13 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>125</v>
+        <v>356</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -7283,7 +7244,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -7294,41 +7255,41 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>344</v>
+        <v>39</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>362</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>363</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>39</v>
       </c>
@@ -7376,13 +7337,13 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
@@ -7391,10 +7352,10 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>91</v>
+        <v>366</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7402,7 +7363,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7413,7 +7374,7 @@
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>39</v>
@@ -7425,13 +7386,13 @@
         <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7458,13 +7419,13 @@
         <v>39</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
@@ -7482,13 +7443,13 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
@@ -7497,18 +7458,18 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>39</v>
+        <v>374</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>353</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7516,10 +7477,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>39</v>
@@ -7531,18 +7492,18 @@
         <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>39</v>
       </c>
@@ -7590,13 +7551,13 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -7605,18 +7566,18 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>361</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7627,7 +7588,7 @@
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>39</v>
@@ -7636,21 +7597,19 @@
         <v>39</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>39</v>
       </c>
@@ -7674,13 +7633,13 @@
         <v>39</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>39</v>
+        <v>383</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>39</v>
+        <v>384</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>39</v>
@@ -7698,13 +7657,13 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
@@ -7713,18 +7672,18 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>39</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7744,21 +7703,19 @@
         <v>39</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>368</v>
+        <v>120</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>369</v>
+        <v>121</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>370</v>
+        <v>122</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>39</v>
       </c>
@@ -7806,7 +7763,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>367</v>
+        <v>123</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7821,10 +7778,10 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>372</v>
+        <v>124</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>373</v>
+        <v>39</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>39</v>
@@ -7832,11 +7789,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7852,18 +7809,20 @@
         <v>39</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>375</v>
+        <v>126</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7888,31 +7847,31 @@
         <v>39</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>377</v>
+        <v>39</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>378</v>
+        <v>39</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>374</v>
+        <v>129</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7927,10 +7886,10 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>379</v>
+        <v>124</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7938,7 +7897,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7961,18 +7920,20 @@
         <v>49</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>382</v>
+        <v>242</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>383</v>
+        <v>243</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>384</v>
+        <v>244</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
       </c>
@@ -8008,19 +7969,17 @@
         <v>39</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>381</v>
+        <v>248</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -8035,20 +7994,22 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>379</v>
+        <v>249</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>39</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="C59" t="s" s="2">
         <v>39</v>
       </c>
@@ -8057,7 +8018,7 @@
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>39</v>
@@ -8069,16 +8030,20 @@
         <v>49</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>387</v>
+        <v>243</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>39</v>
       </c>
@@ -8102,10 +8067,10 @@
         <v>39</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>389</v>
+        <v>252</v>
       </c>
       <c r="Y59" t="s" s="2">
         <v>390</v>
@@ -8126,7 +8091,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>386</v>
+        <v>248</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -8141,18 +8106,18 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>391</v>
+        <v>249</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>392</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8175,13 +8140,13 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8232,7 +8197,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8247,7 +8212,7 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
@@ -8258,11 +8223,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8284,14 +8249,12 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -8331,7 +8294,7 @@
         <v>96</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>39</v>
@@ -8340,7 +8303,7 @@
         <v>97</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -8355,7 +8318,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -8366,9 +8329,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>39</v>
       </c>
@@ -8386,23 +8351,19 @@
         <v>39</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>39</v>
       </c>
@@ -8438,17 +8399,19 @@
         <v>39</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AB62" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8463,28 +8426,26 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>246</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>48</v>
@@ -8499,26 +8460,26 @@
         <v>49</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>238</v>
+        <v>61</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>39</v>
@@ -8536,13 +8497,13 @@
         <v>39</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>396</v>
+        <v>39</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -8560,13 +8521,13 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
@@ -8575,18 +8536,18 @@
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8606,18 +8567,20 @@
         <v>39</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>39</v>
@@ -8666,7 +8629,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>119</v>
+        <v>273</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8681,18 +8644,18 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>120</v>
+        <v>274</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>39</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8700,10 +8663,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>39</v>
@@ -8712,19 +8675,21 @@
         <v>39</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>94</v>
+        <v>277</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>95</v>
+        <v>278</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>39</v>
       </c>
@@ -8760,25 +8725,25 @@
         <v>39</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
@@ -8787,31 +8752,29 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>39</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>39</v>
@@ -8820,19 +8783,21 @@
         <v>39</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
       </c>
@@ -8880,13 +8845,13 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
@@ -8895,18 +8860,18 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>39</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8926,19 +8891,23 @@
         <v>39</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>39</v>
       </c>
@@ -8986,7 +8955,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -9001,29 +8970,29 @@
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>39</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>39</v>
@@ -9032,21 +9001,23 @@
         <v>39</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>122</v>
+        <v>299</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
       </c>
@@ -9082,25 +9053,25 @@
         <v>39</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
@@ -9109,18 +9080,18 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>39</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9128,7 +9099,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>48</v>
@@ -9140,19 +9111,19 @@
         <v>39</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>259</v>
+        <v>402</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9178,13 +9149,13 @@
         <v>39</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>39</v>
+        <v>403</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>39</v>
+        <v>404</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>39</v>
@@ -9202,10 +9173,10 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>260</v>
+        <v>399</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>48</v>
@@ -9217,7 +9188,7 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>91</v>
+        <v>405</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>39</v>
@@ -9228,7 +9199,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9239,7 +9210,7 @@
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>39</v>
@@ -9251,15 +9222,17 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>262</v>
+        <v>407</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>263</v>
+        <v>408</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>39</v>
@@ -9308,13 +9281,13 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>265</v>
+        <v>406</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>39</v>
@@ -9323,7 +9296,7 @@
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>91</v>
+        <v>411</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>39</v>
@@ -9334,7 +9307,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9342,10 +9315,10 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>39</v>
@@ -9354,29 +9327,27 @@
         <v>39</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>267</v>
+        <v>413</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>268</v>
+        <v>414</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>39</v>
@@ -9394,13 +9365,13 @@
         <v>39</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>39</v>
+        <v>416</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>39</v>
+        <v>417</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>39</v>
@@ -9418,13 +9389,13 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>39</v>
@@ -9433,18 +9404,18 @@
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>273</v>
+        <v>418</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>274</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9464,20 +9435,18 @@
         <v>39</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>276</v>
+        <v>121</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>39</v>
@@ -9526,7 +9495,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>279</v>
+        <v>123</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9541,29 +9510,29 @@
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>280</v>
+        <v>124</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>281</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>39</v>
@@ -9572,21 +9541,21 @@
         <v>39</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>39</v>
       </c>
@@ -9622,25 +9591,25 @@
         <v>39</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>286</v>
+        <v>129</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
@@ -9649,18 +9618,18 @@
         <v>39</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>287</v>
+        <v>124</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>288</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9668,10 +9637,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>39</v>
@@ -9683,17 +9652,19 @@
         <v>49</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="N74" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>39</v>
@@ -9730,25 +9701,23 @@
         <v>39</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="AB74" s="2"/>
       <c r="AC74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>39</v>
@@ -9757,20 +9726,22 @@
         <v>39</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>295</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>39</v>
       </c>
@@ -9791,19 +9762,19 @@
         <v>49</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>39</v>
@@ -9828,13 +9799,13 @@
         <v>39</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>39</v>
+        <v>422</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>39</v>
@@ -9852,13 +9823,13 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>39</v>
@@ -9867,18 +9838,18 @@
         <v>39</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>303</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9898,23 +9869,19 @@
         <v>39</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>305</v>
+        <v>121</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>39</v>
       </c>
@@ -9962,7 +9929,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -9977,18 +9944,18 @@
         <v>39</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>311</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9999,7 +9966,7 @@
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>39</v>
@@ -10008,20 +9975,18 @@
         <v>39</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>410</v>
+        <v>94</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>39</v>
@@ -10046,37 +10011,37 @@
         <v>39</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>413</v>
+        <v>39</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>414</v>
+        <v>39</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>409</v>
+        <v>129</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
@@ -10085,7 +10050,7 @@
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>415</v>
+        <v>39</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>39</v>
@@ -10096,9 +10061,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
       </c>
@@ -10119,17 +10086,15 @@
         <v>39</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>417</v>
+        <v>257</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>418</v>
+        <v>258</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>39</v>
@@ -10178,7 +10143,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>416</v>
+        <v>129</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10193,7 +10158,7 @@
         <v>39</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>421</v>
+        <v>39</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>39</v>
@@ -10204,7 +10169,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10212,10 +10177,10 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>39</v>
@@ -10224,27 +10189,29 @@
         <v>39</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>423</v>
+        <v>261</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>424</v>
+        <v>262</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>39</v>
@@ -10262,13 +10229,13 @@
         <v>39</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>426</v>
+        <v>39</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>427</v>
+        <v>39</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>39</v>
@@ -10286,13 +10253,13 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>422</v>
+        <v>266</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>39</v>
@@ -10301,18 +10268,18 @@
         <v>39</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>428</v>
+        <v>267</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>39</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10332,18 +10299,20 @@
         <v>39</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>39</v>
@@ -10392,7 +10361,7 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>119</v>
+        <v>273</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10407,29 +10376,29 @@
         <v>39</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>120</v>
+        <v>274</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>39</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>39</v>
@@ -10438,21 +10407,21 @@
         <v>39</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>122</v>
+        <v>277</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
       </c>
@@ -10488,25 +10457,25 @@
         <v>39</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>39</v>
@@ -10515,18 +10484,18 @@
         <v>39</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>39</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10534,10 +10503,10 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>39</v>
@@ -10549,19 +10518,17 @@
         <v>49</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
@@ -10598,23 +10565,25 @@
         <v>39</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AB82" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>39</v>
@@ -10623,22 +10592,20 @@
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>246</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>39</v>
       </c>
@@ -10659,19 +10626,19 @@
         <v>49</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>39</v>
@@ -10696,13 +10663,13 @@
         <v>39</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>432</v>
+        <v>39</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>39</v>
@@ -10720,13 +10687,13 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>39</v>
@@ -10735,18 +10702,18 @@
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>246</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10766,19 +10733,23 @@
         <v>39</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>117</v>
+        <v>299</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
       </c>
@@ -10826,7 +10797,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>119</v>
+        <v>303</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10841,18 +10812,18 @@
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>39</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10875,16 +10846,18 @@
         <v>39</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>93</v>
+        <v>432</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>94</v>
+        <v>433</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>95</v>
+        <v>434</v>
       </c>
       <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>39</v>
       </c>
@@ -10920,19 +10893,19 @@
         <v>39</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>125</v>
+        <v>431</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10947,7 +10920,7 @@
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>39</v>
+        <v>418</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>39</v>
@@ -10958,11 +10931,9 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>39</v>
       </c>
@@ -10983,13 +10954,13 @@
         <v>39</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>94</v>
+        <v>437</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>95</v>
+        <v>438</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11016,13 +10987,13 @@
         <v>39</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>39</v>
+        <v>439</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>39</v>
+        <v>440</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>39</v>
@@ -11040,7 +11011,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>125</v>
+        <v>436</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -11055,7 +11026,7 @@
         <v>39</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>39</v>
+        <v>441</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>39</v>
@@ -11066,7 +11037,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11077,7 +11048,7 @@
         <v>40</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>39</v>
@@ -11089,13 +11060,13 @@
         <v>39</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>116</v>
+        <v>443</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>117</v>
+        <v>444</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>118</v>
+        <v>445</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11146,13 +11117,13 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>119</v>
+        <v>442</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>39</v>
@@ -11161,29 +11132,29 @@
         <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>120</v>
+        <v>446</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>39</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>39</v>
@@ -11195,17 +11166,15 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>39</v>
@@ -11242,34 +11211,34 @@
         <v>39</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="AB88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>39</v>
@@ -11280,18 +11249,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>39</v>
@@ -11303,16 +11272,16 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>259</v>
+        <v>109</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11350,25 +11319,25 @@
         <v>39</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>39</v>
@@ -11377,7 +11346,7 @@
         <v>39</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>39</v>
@@ -11388,7 +11357,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11408,16 +11377,16 @@
         <v>39</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>262</v>
+        <v>451</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>263</v>
+        <v>452</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>264</v>
+        <v>453</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11468,7 +11437,7 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>265</v>
+        <v>454</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
@@ -11483,18 +11452,18 @@
         <v>39</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11502,7 +11471,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>48</v>
@@ -11517,26 +11486,22 @@
         <v>49</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>61</v>
+        <v>457</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>267</v>
+        <v>458</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>39</v>
@@ -11578,7 +11543,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>272</v>
+        <v>460</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -11593,18 +11558,18 @@
         <v>39</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>273</v>
+        <v>461</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>274</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11612,7 +11577,7 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>48</v>
@@ -11624,20 +11589,18 @@
         <v>39</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>276</v>
+        <v>463</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>39</v>
@@ -11686,10 +11649,10 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>279</v>
+        <v>465</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>48</v>
@@ -11701,18 +11664,18 @@
         <v>39</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>280</v>
+        <v>466</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>281</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11720,10 +11683,10 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>39</v>
@@ -11732,21 +11695,19 @@
         <v>39</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>283</v>
+        <v>468</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>284</v>
+        <v>469</v>
       </c>
       <c r="M93" s="2"/>
-      <c r="N93" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>39</v>
       </c>
@@ -11794,33 +11755,33 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>286</v>
+        <v>467</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>39</v>
+        <v>333</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>287</v>
+        <v>470</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>288</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11828,7 +11789,7 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>48</v>
@@ -11840,21 +11801,19 @@
         <v>39</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>290</v>
+        <v>121</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>291</v>
+        <v>122</v>
       </c>
       <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>39</v>
       </c>
@@ -11902,7 +11861,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>293</v>
+        <v>123</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -11917,29 +11876,29 @@
         <v>39</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>294</v>
+        <v>124</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>295</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>39</v>
@@ -11948,23 +11907,21 @@
         <v>39</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>297</v>
+        <v>126</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>298</v>
+        <v>127</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>39</v>
       </c>
@@ -12012,13 +11969,13 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
@@ -12027,54 +11984,52 @@
         <v>39</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>302</v>
+        <v>124</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>303</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>305</v>
+        <v>107</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>39</v>
       </c>
@@ -12122,13 +12077,13 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>39</v>
@@ -12137,18 +12092,18 @@
         <v>39</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>310</v>
+        <v>91</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>311</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12159,7 +12114,7 @@
         <v>40</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>39</v>
@@ -12171,18 +12126,16 @@
         <v>39</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>446</v>
+        <v>141</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="M97" s="2"/>
-      <c r="N97" t="s" s="2">
-        <v>449</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>39</v>
       </c>
@@ -12206,13 +12159,13 @@
         <v>39</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>39</v>
+        <v>477</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>39</v>
+        <v>478</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
@@ -12230,13 +12183,13 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>39</v>
@@ -12245,7 +12198,7 @@
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>39</v>
@@ -12256,7 +12209,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12264,10 +12217,10 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>39</v>
@@ -12279,13 +12232,13 @@
         <v>39</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>137</v>
+        <v>481</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12312,13 +12265,13 @@
         <v>39</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>453</v>
+        <v>39</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>454</v>
+        <v>39</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>39</v>
@@ -12336,13 +12289,13 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>39</v>
@@ -12351,7 +12304,7 @@
         <v>39</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>39</v>
@@ -12362,7 +12315,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12385,16 +12338,20 @@
         <v>39</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>39</v>
       </c>
@@ -12442,7 +12399,7 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -12457,18 +12414,18 @@
         <v>39</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>461</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12479,7 +12436,7 @@
         <v>40</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>39</v>
@@ -12491,15 +12448,17 @@
         <v>39</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>117</v>
+        <v>493</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>39</v>
@@ -12524,13 +12483,13 @@
         <v>39</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>39</v>
+        <v>495</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>39</v>
+        <v>496</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>39</v>
@@ -12548,13 +12507,13 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>119</v>
+        <v>492</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>39</v>
@@ -12563,1301 +12522,17 @@
         <v>39</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>120</v>
+        <v>497</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL112" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL112">
+  <autoFilter ref="A1:AL100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13867,7 +12542,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI111">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
